--- a/biology/Médecine/Colette_Ouzilou/Colette_Ouzilou.xlsx
+++ b/biology/Médecine/Colette_Ouzilou/Colette_Ouzilou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colette Ouzilou est une orthophoniste française[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colette Ouzilou est une orthophoniste française. 
 Elle exerce depuis 1973. Elle est l'auteur de Dyslexie, une vraie-fausse épidémie.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colette Ouzilou a travaillé en cabinet libéral et dans plusieurs centres médico-psycho-pédagogiques (CMPP). D'après elle, les vrais dyslexiques ne représentent qu'à peine 1 % de la population[2]. La majorité des difficultés en lecture serait dues, selon Colette Ouzilou, à un mauvais enseignement de la lecture. Pourtant les auteurs des études récentes et reconnues pour leur validité[3],[4] estiment que la prévalence se situe plutôt autour de 5 % à 15 % et rappellent que le diagnostic de dyslexie se pose précisément comme la résistance d'un enfant à un apprentissage de la lecture bien mené pendant au moins deux années[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colette Ouzilou a travaillé en cabinet libéral et dans plusieurs centres médico-psycho-pédagogiques (CMPP). D'après elle, les vrais dyslexiques ne représentent qu'à peine 1 % de la population. La majorité des difficultés en lecture serait dues, selon Colette Ouzilou, à un mauvais enseignement de la lecture. Pourtant les auteurs des études récentes et reconnues pour leur validité, estiment que la prévalence se situe plutôt autour de 5 % à 15 % et rappellent que le diagnostic de dyslexie se pose précisément comme la résistance d'un enfant à un apprentissage de la lecture bien mené pendant au moins deux années.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dyslexie, une vraie-fausse épidémie, Presses de la Renaissance, 2001  (ISBN 2-85616-829-9)
 Nouvelle édition de Dyslexie : une vraie-fausse épidémie, septembre 2010
